--- a/Reviews/1_Review/1_Sprint_Burn-Down_Chart.xlsx
+++ b/Reviews/1_Review/1_Sprint_Burn-Down_Chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phili\Desktop\github_projekte\SYP_GRUPPE_3_2024\Reviews\1_Review\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabian\Desktop\CaSiiiNo\SYP_GRUPPE_3_2024\Reviews\1_Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F943BA0-FB20-430F-988D-F443C7977026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2473613F-5E97-43DA-B57B-24E6CB6B7C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{08BCE8FC-179B-459C-9B7D-265214947282}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{08BCE8FC-179B-459C-9B7D-265214947282}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -60,12 +60,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -80,8 +86,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1132,16 +1139,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1486,13 +1493,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F7B7D6-30CA-4B00-92E5-61B05DCAC22F}">
-  <dimension ref="B3:D8"/>
+  <dimension ref="B3:S8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="19" width="11.42578125" style="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">

--- a/Reviews/1_Review/1_Sprint_Burn-Down_Chart.xlsx
+++ b/Reviews/1_Review/1_Sprint_Burn-Down_Chart.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabian\Desktop\CaSiiiNo\SYP_GRUPPE_3_2024\Reviews\1_Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2473613F-5E97-43DA-B57B-24E6CB6B7C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18B022B-B9F3-4ABB-B61C-5CCB14E33A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{08BCE8FC-179B-459C-9B7D-265214947282}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle1 (2)" sheetId="3" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>Days</t>
   </si>
@@ -88,7 +89,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -107,6 +108,516 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2800"/>
+              <a:t>Sprint Burn-Down Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12734497944884662"/>
+          <c:y val="0.15675860112042467"/>
+          <c:w val="0.84494646722485978"/>
+          <c:h val="0.68818036080344702"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:softEdge rad="0"/>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Tabelle1 (2)'!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Tabelle1 (2)'!$C$4:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-504E-4340-977F-261E543E30B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:alpha val="49000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Tabelle1 (2)'!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Tabelle1 (2)'!$D$4:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-504E-4340-977F-261E543E30B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1373877391"/>
+        <c:axId val="1369757887"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1373877391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT" sz="2000"/>
+                  <a:t>Arbeitstage im Sprint</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1369757887"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1369757887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT" sz="2000"/>
+                  <a:t>Story Points Remaining in the Sprint Backlog</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.5487504399859204E-2"/>
+              <c:y val="0.12783472258360251"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1373877391"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -656,6 +1167,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
   <cs:axisTitle>
@@ -1135,7 +1686,529 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ADA5523-76CD-485D-9F86-351A47DF3ADD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1492,11 +2565,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F7B7D6-30CA-4B00-92E5-61B05DCAC22F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47D3545D-AAE0-4032-B04A-FAA83461C584}">
   <dimension ref="B3:S8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1520,6 +2593,94 @@
         <v>0</v>
       </c>
       <c r="C4">
+        <v>39</v>
+      </c>
+      <c r="D4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>36</v>
+      </c>
+      <c r="D5">
+        <f>D4/4*3</f>
+        <v>29.25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>36</v>
+      </c>
+      <c r="D6">
+        <f>D4/2</f>
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>28</v>
+      </c>
+      <c r="D7">
+        <f>D4/4</f>
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>28</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F7B7D6-30CA-4B00-92E5-61B05DCAC22F}">
+  <dimension ref="B3:S8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="19" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
         <v>10</v>
       </c>
       <c r="D4">

--- a/Reviews/1_Review/1_Sprint_Burn-Down_Chart.xlsx
+++ b/Reviews/1_Review/1_Sprint_Burn-Down_Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabian\Desktop\CaSiiiNo\SYP_GRUPPE_3_2024\Reviews\1_Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18B022B-B9F3-4ABB-B61C-5CCB14E33A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C784DC-E575-405C-905B-81E040F79367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{08BCE8FC-179B-459C-9B7D-265214947282}"/>
   </bookViews>
@@ -246,7 +246,7 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2569,7 +2569,7 @@
   <dimension ref="B3:S8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2640,7 +2640,7 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D8">
         <v>0</v>
